--- a/component-sourcing/OSCHSSP_electrical_BOM_adafruit_v1.0.xlsx
+++ b/component-sourcing/OSCHSSP_electrical_BOM_adafruit_v1.0.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAST Research Group\Heat Processes Projects\Mini Press 1000\open-source-cold-and-hot-scientific-sheet-press\component-sourcing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAST Research Group\Sheet Press\open-source-cold-and-hot-sheet-press\component-sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCC84EF-AF4A-4767-873A-91A73B4C132A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE8A19D-437C-4CE7-85D4-0048283105FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Thermocouple Amplifier MAX31855 breakout board (MAX6675 upgrade)</t>
   </si>
@@ -55,13 +66,55 @@
   </si>
   <si>
     <t>https://www.adafruit.com/product/198</t>
+  </si>
+  <si>
+    <t>Bill of materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project name: </t>
+  </si>
+  <si>
+    <t>Part #</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Number of products to buy</t>
+  </si>
+  <si>
+    <t>Cost/Product</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Special instructions</t>
+  </si>
+  <si>
+    <t>Adafruit ANO Rotary Navigation Encoder to I2C Stemma QT Adapter</t>
+  </si>
+  <si>
+    <t>ANO Directional Navigation and Scroll Wheel Rotary Encoder</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/5001</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/5740</t>
+  </si>
+  <si>
+    <t>Nano breakout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +129,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,17 +159,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{45F49880-8B84-42F1-BF51-B98DFDB62D57}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,67 +450,402 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14315D88-2B40-4C0B-BFE9-78F014A41022}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>14.95</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E27" si="0">C3*D3</f>
+        <v>14.95</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17.95</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>17.95</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D38"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2EB8CDAD-0C10-46BC-8012-97089C7733B2}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{1FFA85E3-F137-4991-A39E-2CAB15B1712F}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{5CFE68C8-468F-421C-91EC-2D51F7E3950B}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{1994BBF3-D0D5-48C6-BE36-F266013BA764}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{2EB8CDAD-0C10-46BC-8012-97089C7733B2}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{1FFA85E3-F137-4991-A39E-2CAB15B1712F}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{5CFE68C8-468F-421C-91EC-2D51F7E3950B}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{1994BBF3-D0D5-48C6-BE36-F266013BA764}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{86ECC5B8-D304-4206-A97E-A1F23A2B9E3D}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{EFC838B6-84AB-4C9E-9905-836BB6DB5092}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/component-sourcing/OSCHSSP_electrical_BOM_adafruit_v1.0.xlsx
+++ b/component-sourcing/OSCHSSP_electrical_BOM_adafruit_v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAST Research Group\Sheet Press\open-source-cold-and-hot-sheet-press\component-sourcing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FAST Research Group\Sheet Press\open-source-cold-and-hot-sheet-press\component-sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE8A19D-437C-4CE7-85D4-0048283105FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F515B1-8EDF-4623-99FC-622CC624E898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Adafruit ANO Rotary Navigation Encoder to I2C Stemma QT Adapter</t>
   </si>
   <si>
-    <t>ANO Directional Navigation and Scroll Wheel Rotary Encoder</t>
-  </si>
-  <si>
     <t>https://www.adafruit.com/product/5001</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Nano breakout</t>
+  </si>
+  <si>
+    <t>Scroll Wheel Rotary Encoder and ANO Directional Navigation</t>
   </si>
 </sst>
 </file>
@@ -454,22 +454,22 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="2"/>
+    <col min="6" max="6" width="32.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
@@ -477,7 +477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -579,7 +579,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -595,7 +595,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -616,19 +616,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -646,15 +646,15 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -814,22 +814,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D33"/>
     </row>
-    <row r="34" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D34"/>
     </row>
-    <row r="35" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D35"/>
     </row>
-    <row r="36" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D36"/>
     </row>
-    <row r="37" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D37"/>
     </row>
-    <row r="38" spans="4:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D38"/>
     </row>
   </sheetData>
